--- a/技术要点及计划.xlsx
+++ b/技术要点及计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="536">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2259,6 +2259,14 @@
   </si>
   <si>
     <t>HTTPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant App SDK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2613,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+    <sheetView topLeftCell="B34" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -3097,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G317"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D273" sqref="D273"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5174,327 +5182,336 @@
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" t="s">
-        <v>313</v>
+        <v>534</v>
+      </c>
+      <c r="C272" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" t="s">
-        <v>514</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" t="s">
-        <v>322</v>
+        <v>514</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2"/>
+      <c r="B280" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A280" s="2"/>
-      <c r="B280" s="1" t="s">
+    <row r="281" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A281" s="2"/>
+      <c r="B281" s="1" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="2"/>
-      <c r="B281" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C281" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
-      <c r="B282" s="6"/>
+      <c r="B282" s="6" t="s">
+        <v>330</v>
+      </c>
       <c r="C282" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="6"/>
       <c r="C283" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="6"/>
       <c r="C284" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="6"/>
       <c r="C285" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
-      <c r="B286" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="B286" s="6"/>
       <c r="C286" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
-      <c r="B287" s="1"/>
+      <c r="B287" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="C287" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="1"/>
       <c r="C288" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="1"/>
       <c r="C289" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
-      <c r="B290" s="6" t="s">
-        <v>382</v>
-      </c>
+      <c r="B290" s="1"/>
       <c r="C290" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="C291" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
-      <c r="B292" s="9" t="s">
-        <v>398</v>
+      <c r="B292" s="6"/>
+      <c r="C292" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
-      <c r="B293" t="s">
-        <v>333</v>
+      <c r="B293" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" t="s">
-        <v>484</v>
+        <v>333</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
+      <c r="B297" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B300" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C299" s="4" t="s">
+      <c r="C300" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D300" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="2"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" t="s">
-        <v>376</v>
+      <c r="D301" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="4"/>
-      <c r="C302" t="s">
-        <v>377</v>
-      </c>
+      <c r="C302" s="4"/>
       <c r="D302" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
-      <c r="B303" t="s">
-        <v>379</v>
+      <c r="B303" s="4"/>
+      <c r="C303" t="s">
+        <v>377</v>
+      </c>
+      <c r="D303" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="2"/>
+      <c r="B305" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="7" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B306" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C306" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="7"/>
-      <c r="B306" s="4"/>
-      <c r="C306" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
       <c r="B307" s="4"/>
       <c r="C307" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
-      <c r="B308" t="s">
-        <v>357</v>
-      </c>
+      <c r="B308" s="4"/>
       <c r="C308" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
-      <c r="B309" s="4" t="s">
-        <v>290</v>
+      <c r="B309" t="s">
+        <v>357</v>
       </c>
       <c r="C309" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
-      <c r="B310" s="4"/>
+      <c r="B310" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="C310" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
       <c r="B311" s="4"/>
       <c r="C311" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
-      <c r="B312" t="s">
-        <v>385</v>
-      </c>
+      <c r="B312" s="4"/>
       <c r="C312" t="s">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
       <c r="B313" t="s">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="C313" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
       <c r="B314" t="s">
-        <v>358</v>
+        <v>291</v>
       </c>
       <c r="C314" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
       <c r="B315" t="s">
-        <v>448</v>
+        <v>358</v>
+      </c>
+      <c r="C315" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
       <c r="B316" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
       <c r="B317" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="7"/>
+      <c r="B318" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5506,15 +5523,15 @@
     <mergeCell ref="B147:B149"/>
     <mergeCell ref="A139:A155"/>
     <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="B309:B311"/>
+    <mergeCell ref="B306:B308"/>
+    <mergeCell ref="B310:B312"/>
     <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="A299:A304"/>
-    <mergeCell ref="A305:A317"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="B281:B285"/>
+    <mergeCell ref="C300:C302"/>
+    <mergeCell ref="B300:B303"/>
+    <mergeCell ref="A300:A305"/>
+    <mergeCell ref="A306:A318"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="B282:B286"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B135:B137"/>
@@ -5531,7 +5548,7 @@
     <mergeCell ref="B248:B258"/>
     <mergeCell ref="A242:A258"/>
     <mergeCell ref="A259:A264"/>
-    <mergeCell ref="A265:A298"/>
+    <mergeCell ref="A265:A299"/>
     <mergeCell ref="A205:A211"/>
     <mergeCell ref="A212:A218"/>
     <mergeCell ref="B231:B232"/>

--- a/技术要点及计划.xlsx
+++ b/技术要点及计划.xlsx
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/技术要点及计划.xlsx
+++ b/技术要点及计划.xlsx
@@ -2339,11 +2339,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2351,7 +2352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2695,7 +2695,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
         <v>43663</v>
       </c>
       <c r="F3" t="s">
@@ -2711,7 +2711,7 @@
       <c r="D4" t="s">
         <v>535</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>43664</v>
       </c>
       <c r="F4" t="s">
@@ -2727,7 +2727,7 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>43665</v>
       </c>
       <c r="F5" t="s">
@@ -2889,7 +2889,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>496</v>
       </c>
       <c r="D25" t="s">
@@ -2899,7 +2899,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="8"/>
       <c r="D26" t="s">
         <v>498</v>
       </c>
@@ -2907,7 +2907,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="8"/>
       <c r="D27" t="s">
         <v>499</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>503</v>
       </c>
       <c r="C38" t="s">
@@ -3117,16 +3117,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B47"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B21:B33"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="A16:A34"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>401</v>
       </c>
       <c r="C7" t="s">
@@ -3219,28 +3219,28 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>406</v>
       </c>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C15" t="s">
@@ -3274,28 +3274,28 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C19" t="s">
@@ -3304,21 +3304,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>333</v>
       </c>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C27" t="s">
@@ -3361,14 +3361,14 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>337</v>
       </c>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>279</v>
       </c>
       <c r="C31" t="s">
@@ -3390,7 +3390,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>281</v>
       </c>
@@ -4093,7 +4093,7 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D120" t="s">
@@ -4103,7 +4103,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="8"/>
       <c r="D121" t="s">
         <v>172</v>
       </c>
@@ -4111,7 +4111,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="6"/>
+      <c r="C122" s="8"/>
       <c r="D122" t="s">
         <v>173</v>
       </c>
@@ -4119,7 +4119,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="8"/>
       <c r="D123" t="s">
         <v>292</v>
       </c>
@@ -4127,7 +4127,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="8"/>
       <c r="D124" t="s">
         <v>174</v>
       </c>
@@ -4135,7 +4135,7 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="8"/>
       <c r="D125" t="s">
         <v>175</v>
       </c>
@@ -4143,7 +4143,7 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="8"/>
       <c r="D126" t="s">
         <v>176</v>
       </c>
@@ -4151,7 +4151,7 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="8"/>
       <c r="D127" t="s">
         <v>177</v>
       </c>
@@ -4159,8 +4159,8 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6" t="s">
+      <c r="C128" s="8"/>
+      <c r="D128" s="8" t="s">
         <v>178</v>
       </c>
       <c r="E128" t="s">
@@ -4170,8 +4170,8 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
       <c r="E129" t="s">
         <v>180</v>
       </c>
@@ -4179,8 +4179,8 @@
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
       <c r="E130" t="s">
         <v>181</v>
       </c>
@@ -4188,8 +4188,8 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
       <c r="E131" t="s">
         <v>182</v>
       </c>
@@ -4197,8 +4197,8 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
       <c r="E132" t="s">
         <v>183</v>
       </c>
@@ -4206,8 +4206,8 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
       <c r="E133" t="s">
         <v>184</v>
       </c>
@@ -4215,14 +4215,14 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="6"/>
+      <c r="C134" s="8"/>
       <c r="D134" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="8" t="s">
         <v>339</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -4231,14 +4231,14 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
-      <c r="B136" s="6"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
-      <c r="B137" s="6"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
         <v>342</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="A139" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="8" t="s">
         <v>476</v>
       </c>
       <c r="C139" s="3" t="s">
@@ -4262,7 +4262,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
-      <c r="B140" s="6"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
         <v>478</v>
       </c>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C142" t="s">
@@ -4285,14 +4285,14 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
-      <c r="B143" s="6"/>
+      <c r="B143" s="8"/>
       <c r="C143" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="8" t="s">
         <v>316</v>
       </c>
       <c r="C144" t="s">
@@ -4301,7 +4301,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
-      <c r="B145" s="6"/>
+      <c r="B145" s="8"/>
       <c r="C145" t="s">
         <v>408</v>
       </c>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="8" t="s">
         <v>473</v>
       </c>
       <c r="C147" t="s">
@@ -4323,14 +4323,14 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="6"/>
+      <c r="B148" s="8"/>
       <c r="C148" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="6"/>
+      <c r="B149" s="8"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="8" t="s">
         <v>343</v>
       </c>
       <c r="C153" t="s">
@@ -4361,7 +4361,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
-      <c r="B154" s="6"/>
+      <c r="B154" s="8"/>
       <c r="C154" t="s">
         <v>294</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="A156" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C156" t="s">
@@ -4385,28 +4385,28 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
-      <c r="B157" s="6"/>
+      <c r="B157" s="8"/>
       <c r="C157" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
-      <c r="B158" s="6"/>
+      <c r="B158" s="8"/>
       <c r="C158" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
-      <c r="B159" s="6"/>
+      <c r="B159" s="8"/>
       <c r="C159" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
-      <c r="B160" s="6"/>
+      <c r="B160" s="8"/>
       <c r="C160" t="s">
         <v>298</v>
       </c>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="8" t="s">
         <v>282</v>
       </c>
       <c r="C162" t="s">
@@ -4428,7 +4428,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
-      <c r="B163" s="6"/>
+      <c r="B163" s="8"/>
       <c r="C163" t="s">
         <v>284</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="A168" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C168" t="s">
@@ -4472,8 +4472,8 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6" t="s">
+      <c r="B169" s="8"/>
+      <c r="C169" s="8" t="s">
         <v>460</v>
       </c>
       <c r="D169" t="s">
@@ -4482,44 +4482,44 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
       <c r="D170" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
       <c r="D171" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
-      <c r="B172" s="6"/>
+      <c r="B172" s="8"/>
       <c r="C172" s="3" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
-      <c r="B173" s="6"/>
+      <c r="B173" s="8"/>
       <c r="C173" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
-      <c r="B174" s="6"/>
+      <c r="B174" s="8"/>
       <c r="C174" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C175" t="s">
@@ -4528,21 +4528,21 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
-      <c r="B176" s="6"/>
+      <c r="B176" s="8"/>
       <c r="C176" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
-      <c r="B177" s="6"/>
+      <c r="B177" s="8"/>
       <c r="C177" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
-      <c r="B178" s="6"/>
+      <c r="B178" s="8"/>
       <c r="C178" s="1" t="s">
         <v>447</v>
       </c>
@@ -4552,8 +4552,8 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6" t="s">
+      <c r="B179" s="8"/>
+      <c r="C179" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D179" t="s">
@@ -4562,54 +4562,54 @@
     </row>
     <row r="180" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
       <c r="D180" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
       <c r="D181" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
       <c r="D182" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
       <c r="D183" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
       <c r="D184" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
-      <c r="B185" s="6"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="3" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
-      <c r="B186" s="6"/>
+      <c r="B186" s="8"/>
       <c r="C186" s="3" t="s">
         <v>449</v>
       </c>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="8" t="s">
         <v>360</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -4705,14 +4705,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
-      <c r="B198" s="6"/>
+      <c r="B198" s="8"/>
       <c r="C198" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
-      <c r="B199" s="6"/>
+      <c r="B199" s="8"/>
       <c r="C199" s="3" t="s">
         <v>363</v>
       </c>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="8" t="s">
         <v>305</v>
       </c>
       <c r="C213" t="s">
@@ -4819,21 +4819,21 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
-      <c r="B214" s="6"/>
+      <c r="B214" s="8"/>
       <c r="C214" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
-      <c r="B215" s="6"/>
+      <c r="B215" s="8"/>
       <c r="C215" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
-      <c r="B216" s="6"/>
+      <c r="B216" s="8"/>
       <c r="C216" t="s">
         <v>308</v>
       </c>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C231" t="s">
@@ -4943,7 +4943,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
-      <c r="B232" s="6"/>
+      <c r="B232" s="8"/>
       <c r="C232" t="s">
         <v>237</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="A242" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C242" t="s">
@@ -5020,7 +5020,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
-      <c r="B243" s="6"/>
+      <c r="B243" s="8"/>
       <c r="C243" t="s">
         <v>250</v>
       </c>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="8" t="s">
         <v>255</v>
       </c>
       <c r="C248" t="s">
@@ -5060,70 +5060,70 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
-      <c r="B249" s="6"/>
+      <c r="B249" s="8"/>
       <c r="C249" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
-      <c r="B250" s="6"/>
+      <c r="B250" s="8"/>
       <c r="C250" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
-      <c r="B251" s="6"/>
+      <c r="B251" s="8"/>
       <c r="C251" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
-      <c r="B252" s="6"/>
+      <c r="B252" s="8"/>
       <c r="C252" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
-      <c r="B253" s="6"/>
+      <c r="B253" s="8"/>
       <c r="C253" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
-      <c r="B254" s="6"/>
+      <c r="B254" s="8"/>
       <c r="C254" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
-      <c r="B255" s="6"/>
+      <c r="B255" s="8"/>
       <c r="C255" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
-      <c r="B256" s="6"/>
+      <c r="B256" s="8"/>
       <c r="C256" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
-      <c r="B257" s="6"/>
+      <c r="B257" s="8"/>
       <c r="C257" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
-      <c r="B258" s="6"/>
+      <c r="B258" s="8"/>
       <c r="C258" t="s">
         <v>266</v>
       </c>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="7"/>
-      <c r="B282" s="9" t="s">
+      <c r="B282" s="10" t="s">
         <v>327</v>
       </c>
       <c r="C282" t="s">
@@ -5284,28 +5284,28 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="7"/>
-      <c r="B283" s="9"/>
+      <c r="B283" s="10"/>
       <c r="C283" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
-      <c r="B284" s="9"/>
+      <c r="B284" s="10"/>
       <c r="C284" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
-      <c r="B285" s="9"/>
+      <c r="B285" s="10"/>
       <c r="C285" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
-      <c r="B286" s="9"/>
+      <c r="B286" s="10"/>
       <c r="C286" t="s">
         <v>326</v>
       </c>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
-      <c r="B291" s="9" t="s">
+      <c r="B291" s="10" t="s">
         <v>379</v>
       </c>
       <c r="C291" t="s">
@@ -5351,7 +5351,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
-      <c r="B292" s="9"/>
+      <c r="B292" s="10"/>
       <c r="C292" t="s">
         <v>381</v>
       </c>
@@ -5396,10 +5396,10 @@
       <c r="A300" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C300" s="8" t="s">
         <v>370</v>
       </c>
       <c r="D300" t="s">
@@ -5408,23 +5408,23 @@
     </row>
     <row r="301" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A301" s="7"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
+      <c r="B301" s="8"/>
+      <c r="C301" s="8"/>
       <c r="D301" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
       <c r="D302" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
-      <c r="B303" s="6"/>
+      <c r="B303" s="8"/>
       <c r="C303" t="s">
         <v>374</v>
       </c>
@@ -5445,10 +5445,10 @@
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="8" t="s">
+      <c r="A306" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="8" t="s">
         <v>349</v>
       </c>
       <c r="C306" t="s">
@@ -5456,21 +5456,21 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="8"/>
-      <c r="B307" s="6"/>
+      <c r="A307" s="9"/>
+      <c r="B307" s="8"/>
       <c r="C307" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="8"/>
-      <c r="B308" s="6"/>
+      <c r="A308" s="9"/>
+      <c r="B308" s="8"/>
       <c r="C308" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="8"/>
+      <c r="A309" s="9"/>
       <c r="B309" t="s">
         <v>354</v>
       </c>
@@ -5479,8 +5479,8 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="8"/>
-      <c r="B310" s="6" t="s">
+      <c r="A310" s="9"/>
+      <c r="B310" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C310" t="s">
@@ -5488,21 +5488,21 @@
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="8"/>
-      <c r="B311" s="6"/>
+      <c r="A311" s="9"/>
+      <c r="B311" s="8"/>
       <c r="C311" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="8"/>
-      <c r="B312" s="6"/>
+      <c r="A312" s="9"/>
+      <c r="B312" s="8"/>
       <c r="C312" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="8"/>
+      <c r="A313" s="9"/>
       <c r="B313" t="s">
         <v>382</v>
       </c>
@@ -5511,7 +5511,7 @@
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="8"/>
+      <c r="A314" s="9"/>
       <c r="B314" t="s">
         <v>288</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="8"/>
+      <c r="A315" s="9"/>
       <c r="B315" t="s">
         <v>355</v>
       </c>
@@ -5529,25 +5529,67 @@
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="8"/>
+      <c r="A316" s="9"/>
       <c r="B316" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="8"/>
+      <c r="A317" s="9"/>
       <c r="B317" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="8"/>
+      <c r="A318" s="9"/>
       <c r="B318" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A139:A155"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C62:C73"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B306:B308"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C300:C302"/>
+    <mergeCell ref="B300:B303"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B248:B258"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="A300:A305"/>
+    <mergeCell ref="A306:A318"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="A230:A238"/>
+    <mergeCell ref="A168:A204"/>
+    <mergeCell ref="A219:A229"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B175:B186"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="A242:A258"/>
+    <mergeCell ref="A259:A264"/>
+    <mergeCell ref="A265:A299"/>
+    <mergeCell ref="A205:A211"/>
+    <mergeCell ref="A212:A218"/>
+    <mergeCell ref="A239:A241"/>
     <mergeCell ref="C179:C184"/>
     <mergeCell ref="A156:A164"/>
     <mergeCell ref="B153:B154"/>
@@ -5564,48 +5606,6 @@
     <mergeCell ref="B107:B109"/>
     <mergeCell ref="C110:C111"/>
     <mergeCell ref="B41:B48"/>
-    <mergeCell ref="A242:A258"/>
-    <mergeCell ref="A259:A264"/>
-    <mergeCell ref="A265:A299"/>
-    <mergeCell ref="A205:A211"/>
-    <mergeCell ref="A212:A218"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A300:A305"/>
-    <mergeCell ref="A306:A318"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="A230:A238"/>
-    <mergeCell ref="A168:A204"/>
-    <mergeCell ref="A219:A229"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B175:B186"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B306:B308"/>
-    <mergeCell ref="B310:B312"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C300:C302"/>
-    <mergeCell ref="B300:B303"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B248:B258"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="A139:A155"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C62:C73"/>
-    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>418</v>
       </c>
       <c r="C6" t="s">
@@ -5740,42 +5740,42 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>423</v>
       </c>
@@ -5828,7 +5828,7 @@
       <c r="A19" t="s">
         <v>424</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>425</v>
       </c>
       <c r="C19" t="s">
@@ -5836,49 +5836,49 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>434</v>
       </c>
       <c r="C27" t="s">
@@ -5886,31 +5886,31 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>439</v>
       </c>
       <c r="C32" t="s">
@@ -5918,13 +5918,13 @@
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="8" t="s">
         <v>442</v>
       </c>
       <c r="C34" t="s">
@@ -5932,7 +5932,7 @@
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>444</v>
       </c>

--- a/技术要点及计划.xlsx
+++ b/技术要点及计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="C++" sheetId="4" r:id="rId6"/>
     <sheet name="JNI" sheetId="5" r:id="rId7"/>
     <sheet name="Shell" sheetId="1" r:id="rId8"/>
+    <sheet name="音视频技术" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="548">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +127,6 @@
   </si>
   <si>
     <t>异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception/Error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,26 +197,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不可变 final
-线程封闭，ThreadLocal
-同步
-    悲观锁
-   非阻塞同步（乐观锁）
-工具类
-    同步容器(过时)
-    并发容器
-    同步器（AOS）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线程协作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻塞与唤醒
-让步
-取消（中断）
-工具类 BlockingQueue,Future,CountDownLatch,CyclicBarrier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,12 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锁,volatile
-    指令重排
-    DCL单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锁,volatile,final
     工作内存与主内存同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,31 +235,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序次序
-监视器锁
-volatile
-线程启动
-线程终结
-中断
-终结
-传递性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线程私有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非线程私有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序计数器
-    记录当前执行位置，便于线程切换与恢复
-虚拟机栈 OOM,SOF
-    局部变量表，操作数栈
-本地方法栈 OOM,SOF
-    native</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -849,18 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bluetooth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Headset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1753,532 +1693,625 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术点分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线段树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒泡排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希尔排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分块查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非对称加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览大图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强，软，弱，虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存优化策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static在内存里的特殊之处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长使用Java中4种引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片加载：最近最少使用算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cursor和IO流及时关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListView和GridView的item缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面背景和图片缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BroadCastReceiver、Service注销与解绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程与线程池管理以及及时结束线程的运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringBuffer与StringBuilder的合适使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用优化好的集合容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象布局使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用约束布局ConstaintLayout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Android Lint工具寻求可能优化布局的层次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binder机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsyncTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandlerThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntentService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View绘制机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharedPreferences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络数据解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serializable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parcelable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统版本特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷启动与热启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕适配相关知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬浮窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomAcceessFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅拷贝与深拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finally与return执行顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建线程的三种方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产者/消费者模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池
+    执行器(ExecutorService)
+    任务(Runnable/Callback/Future)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synchronized/ReentrantLock/Volatile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS原子操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbstractQueuedSynchronized详解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayBlockingQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedBlockingQueue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConcurrentHashMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的创建
+内存布局
+访问定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java内存区域
+内存模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类加载机制
+类加载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LruCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecorView，ViewRoot,
+Window,Activity的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量
+布局
+绘制原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android虚拟机及编译过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程及进程优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程断点续传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-树，B+树，B*树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图的基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kruskal算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prim算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dijkstra算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floyd算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散列查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant App SDK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承、接口
+封装（开闭原则）
+多态（动态绑定，里氏替换，泛型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段，方法，类，局部变量，内部类传参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁,volatile
+    指令重排
+    DCL单例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception/Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可变 final
+线程封闭，ThreadLocal
+同步
+    悲观锁
+   非阻塞同步（乐观锁）
+工具类
+    同步容器(过时)
+    并发容器
+    同步器（AOS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻塞与唤醒
+让步
+取消（中断）
+工具类 BlockingQueue,Future,CountDownLatch,CyclicBarrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序计数器
+    记录当前执行位置，便于线程切换与恢复
+虚拟机栈 OOM,SOF
+    局部变量表，操作数栈
+本地方法栈 OOM,SOF
+    native</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序次序
+监视器锁
+volatile
+传递性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>浏览器访问一个url网址所经历的过程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术点分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分搜索树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线段树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红黑树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒泡排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归并排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希尔排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基数排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分块查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非对称加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览大图</t>
+    <t>AR/AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroidX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reactnative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kotlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内存泄漏
 内存抖动
 内存溢出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强，软，弱，虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存优化策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static在内存里的特殊之处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长使用Java中4种引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片加载：最近最少使用算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursor和IO流及时关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListView和GridView的item缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面背景和图片缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BroadCastReceiver、Service注销与解绑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程与线程池管理以及及时结束线程的运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringBuffer与StringBuilder的合适使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用优化好的集合容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象布局使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>include</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用约束布局ConstaintLayout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用Android Lint工具寻求可能优化布局的层次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binder机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AsyncTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandlerThread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntentService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View绘制机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SharedPreferences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络数据解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serializable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parcelable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统版本特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Context</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷启动与热启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕适配相关知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬浮窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomAcceessFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅拷贝与深拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finally与return执行顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建线程的三种方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产者/消费者模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程池
-    执行器(ExecutorService)
-    任务(Runnable/Callback/Future)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Synchronized/ReentrantLock/Volatile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAS原子操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbstractQueuedSynchronized详解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayBlockingQueue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LinkedBlockingQueue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConcurrentHashMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象的创建
-内存布局
-访问定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java内存区域
-内存模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类加载机制
-类加载器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LruCache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DecorView，ViewRoot,
-Window,Activity的关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测量
-布局
-绘制原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android虚拟机及编译过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多进程及进程优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程断点续传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并查集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-树，B+树，B*树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图的基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拓扑排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kruskal算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prim算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dijkstra算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floyd算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散列查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细要点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传输层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP/IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instant App</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instant App SDK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继承、接口
-封装（开闭原则）
-多态（动态绑定，里氏替换，泛型）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段，方法，类，局部变量，内部类传参</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2634,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2644,7 +2677,7 @@
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -2683,7 +2716,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>533</v>
+        <v>520</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43663</v>
+      </c>
+      <c r="F2" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
@@ -2699,7 +2738,7 @@
         <v>43663</v>
       </c>
       <c r="F3" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2709,20 +2748,20 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="E4" s="6">
         <v>43664</v>
       </c>
       <c r="F4" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2731,7 +2770,7 @@
         <v>43665</v>
       </c>
       <c r="F5" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2740,18 +2779,24 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F6" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2790,13 +2835,13 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2805,323 +2850,439 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="E21" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="E22" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="E23" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+      <c r="E24" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="D25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="E26" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="E27" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F28" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="E29" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F29" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="E30" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F30" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+      <c r="E31" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F31" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F32" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="E33" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F33" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="7"/>
       <c r="C35" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="B36" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
       <c r="B37" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
       <c r="B38" s="9" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="E38" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F39" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="E40" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F40" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E41" s="6">
+        <v>43700</v>
+      </c>
+      <c r="F41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>55</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A36:A51"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B21:B33"/>
     <mergeCell ref="A2:A15"/>
@@ -3136,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C272" sqref="C272"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3155,10 +3316,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -3167,274 +3328,274 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
-        <v>410</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="3" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="5" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3443,77 +3604,77 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3521,7 +3682,7 @@
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3529,7 +3690,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,7 +3698,7 @@
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3545,7 +3706,7 @@
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3553,7 +3714,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3561,7 +3722,7 @@
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3569,7 +3730,7 @@
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,7 +3738,7 @@
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3585,7 +3746,7 @@
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3593,7 +3754,7 @@
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3601,7 +3762,7 @@
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -3609,17 +3770,17 @@
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
@@ -3627,7 +3788,7 @@
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3635,7 +3796,7 @@
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3643,7 +3804,7 @@
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3651,7 +3812,7 @@
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3659,7 +3820,7 @@
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3667,7 +3828,7 @@
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3675,7 +3836,7 @@
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3683,7 +3844,7 @@
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3691,7 +3852,7 @@
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
@@ -3699,7 +3860,7 @@
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3707,17 +3868,17 @@
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3725,7 +3886,7 @@
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3733,7 +3894,7 @@
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3741,7 +3902,7 @@
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3749,7 +3910,7 @@
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3757,17 +3918,17 @@
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3775,7 +3936,7 @@
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3783,7 +3944,7 @@
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3791,7 +3952,7 @@
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3799,7 +3960,7 @@
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,7 +3968,7 @@
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3815,7 +3976,7 @@
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3823,7 +3984,7 @@
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,7 +3992,7 @@
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3839,7 +4000,7 @@
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3847,7 +4008,7 @@
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,7 +4016,7 @@
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3863,7 +4024,7 @@
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3871,7 +4032,7 @@
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3879,7 +4040,7 @@
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3887,7 +4048,7 @@
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3895,7 +4056,7 @@
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3903,7 +4064,7 @@
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,7 +4072,7 @@
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,7 +4080,7 @@
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
@@ -3927,17 +4088,17 @@
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3945,7 +4106,7 @@
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,65 +4114,65 @@
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="2" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4019,17 +4180,17 @@
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D112" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4037,7 +4198,7 @@
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4045,7 +4206,7 @@
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4053,7 +4214,7 @@
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4061,43 +4222,43 @@
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="2" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D119" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D120" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4105,7 +4266,7 @@
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4113,7 +4274,7 @@
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4121,7 +4282,7 @@
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,7 +4290,7 @@
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4137,7 +4298,7 @@
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4145,7 +4306,7 @@
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4153,7 +4314,7 @@
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
       <c r="D127" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4161,10 +4322,10 @@
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E128" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4173,7 +4334,7 @@
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4182,7 +4343,7 @@
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4191,7 +4352,7 @@
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4200,7 +4361,7 @@
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4209,7 +4370,7 @@
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4217,115 +4378,115 @@
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="8" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="3" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="3" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C144" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="8" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C147" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4335,149 +4496,149 @@
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" t="s">
-        <v>192</v>
+        <v>544</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" t="s">
-        <v>193</v>
+        <v>545</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" t="s">
-        <v>194</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="8" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C153" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C156" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="8" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C162" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="3" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C168" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D169" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4485,7 +4646,7 @@
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,71 +4654,71 @@
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="3" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="B175" s="8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C175" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="1" t="s">
-        <v>447</v>
+        <v>547</v>
       </c>
       <c r="D178" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D179" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -4565,7 +4726,7 @@
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,7 +4734,7 @@
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -4581,7 +4742,7 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -4589,7 +4750,7 @@
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -4597,24 +4758,24 @@
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D186" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -4622,7 +4783,7 @@
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -4630,7 +4791,7 @@
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -4638,7 +4799,7 @@
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -4646,7 +4807,7 @@
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -4654,7 +4815,7 @@
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -4662,7 +4823,7 @@
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -4670,7 +4831,7 @@
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -4678,7 +4839,7 @@
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -4686,7 +4847,7 @@
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -4697,713 +4858,716 @@
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="B197" s="8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="B200" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="B202" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="B203" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
       <c r="B207" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
       <c r="B208" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
       <c r="B209" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
       <c r="B211" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
       <c r="B213" s="8" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C213" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
       <c r="B217" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C217" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
       <c r="B220" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="7"/>
       <c r="B221" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
       <c r="B222" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="7"/>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="7"/>
       <c r="B225" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
       <c r="B226" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
       <c r="B228" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
       <c r="B229" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B230" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
       <c r="B231" s="8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C231" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
       <c r="B232" s="8"/>
       <c r="C232" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="7"/>
       <c r="B233" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
       <c r="B234" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
       <c r="B235" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="7"/>
       <c r="B236" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C238" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B239" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C242" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="8"/>
       <c r="C243" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="8"/>
       <c r="C249" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="8"/>
       <c r="C250" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="8"/>
       <c r="C251" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="8"/>
       <c r="C252" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="8"/>
       <c r="C253" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="8"/>
       <c r="C254" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="8"/>
       <c r="C255" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="8"/>
       <c r="C256" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="8"/>
       <c r="C257" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="8"/>
       <c r="C258" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B265" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="7"/>
       <c r="B269" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="7"/>
       <c r="B270" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="7"/>
       <c r="B271" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="7"/>
       <c r="B272" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C272" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="7"/>
       <c r="B273" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="7"/>
       <c r="B274" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="7"/>
       <c r="B275" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="7"/>
       <c r="B276" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="7"/>
       <c r="B277" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="7"/>
       <c r="B278" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
       <c r="B279" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="7"/>
       <c r="B280" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A281" s="7"/>
       <c r="B281" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="7"/>
       <c r="B282" s="10" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C282" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="7"/>
       <c r="B283" s="10"/>
       <c r="C283" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
       <c r="B284" s="10"/>
       <c r="C284" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
       <c r="B285" s="10"/>
       <c r="C285" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
       <c r="B286" s="10"/>
       <c r="C286" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="7"/>
       <c r="B287" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C287" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="7"/>
       <c r="B288" s="1"/>
       <c r="C288" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="7"/>
       <c r="B289" s="1"/>
       <c r="C289" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="7"/>
       <c r="B290" s="1"/>
       <c r="C290" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
       <c r="B291" s="10" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C291" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
       <c r="B292" s="10"/>
       <c r="C292" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="7"/>
       <c r="B293" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="7"/>
       <c r="B294" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="7"/>
       <c r="B295" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="7"/>
       <c r="B296" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
       <c r="B297" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
+      <c r="B298" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D300" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -5411,7 +5575,7 @@
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
       <c r="D301" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -5419,131 +5583,156 @@
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
       <c r="D302" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
       <c r="B303" s="8"/>
       <c r="C303" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D303" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="7"/>
       <c r="B304" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>
       <c r="B305" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C306" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="8"/>
       <c r="C307" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="8"/>
       <c r="C308" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C309" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="8" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C310" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="8"/>
       <c r="C311" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="8"/>
       <c r="C312" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C313" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C314" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C315" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" t="s">
-        <v>203</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -5609,6 +5798,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5617,7 +5807,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5629,7 +5819,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -5638,34 +5828,34 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="F1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5679,7 +5869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -5691,10 +5881,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -5705,236 +5895,236 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C13" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C27" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C32" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
       <c r="C33" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C34" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +6187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -6006,4 +6196,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>